--- a/src/data/BIMBQMTOCIQM_CCRMapping.xlsx
+++ b/src/data/BIMBQMTOCIQM_CCRMapping.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB49C3E-1ADA-4A26-9F30-E807B6CD6A16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA2A93-CDFB-4905-B607-81D103DA4A80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BIMBQM_BKP" sheetId="1" r:id="rId1"/>
+    <sheet name="BIMBQM_BKP" sheetId="4" r:id="rId1"/>
     <sheet name="BIMBQM" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>schemaPattern</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>RELATIONSHIPPERMID,PROPERTYTYPE,PROPERTYVALUE</t>
+  </si>
+  <si>
+    <t>Data Size</t>
   </si>
 </sst>
 </file>
@@ -248,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,21 +533,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E43B1EF-7AEC-4016-8B85-08F060321373}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.7109375" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -553,151 +558,193 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1">
+        <v>139320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14677020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15040540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18095280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41389900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1">
+        <v>53156720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>53194710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>71449130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1">
+        <v>76632220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D11" s="1">
+        <v>80781640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D12" s="1">
+        <v>86722810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>108329390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1">
+        <v>124396460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -707,16 +754,22 @@
       <c r="C15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>203501630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>291632930</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/BIMBQMTOCIQM_CCRMapping.xlsx
+++ b/src/data/BIMBQMTOCIQM_CCRMapping.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA2A93-CDFB-4905-B607-81D103DA4A80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0B2C3-E3D9-460C-952F-E7A0FEE41704}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
   <si>
     <t>schemaPattern</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E43B1EF-7AEC-4016-8B85-08F060321373}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,215 +564,204 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1">
-        <v>139320</v>
+        <v>14677020</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
-        <v>14677020</v>
+        <v>15040540</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1">
-        <v>15040540</v>
+        <v>18095280</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>18095280</v>
+        <v>41389900</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1">
-        <v>41389900</v>
+        <v>53156720</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
-        <v>53156720</v>
+        <v>53194710</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
-        <v>53194710</v>
+        <v>71449130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1">
-        <v>71449130</v>
+        <v>76632220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
-        <v>76632220</v>
+        <v>80781640</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>80781640</v>
+        <v>86722810</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
-        <v>86722810</v>
+        <v>108329390</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
-        <v>108329390</v>
+        <v>124396460</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
-        <v>124396460</v>
+        <v>203501630</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1">
-        <v>203501630</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1">
         <v>291632930</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
+    <sortCondition ref="D2:D15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/data/BIMBQMTOCIQM_CCRMapping.xlsx
+++ b/src/data/BIMBQMTOCIQM_CCRMapping.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0B2C3-E3D9-460C-952F-E7A0FEE41704}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3803672-E78E-487A-8BBC-5B87994D6DC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BIMBQM_BKP" sheetId="4" r:id="rId1"/>
-    <sheet name="BIMBQM" sheetId="3" r:id="rId2"/>
+    <sheet name="CIQM-Try" sheetId="5" r:id="rId1"/>
+    <sheet name="BIMBQM_BKP_TRY" sheetId="6" r:id="rId2"/>
+    <sheet name="BIMBQM_BKP" sheetId="4" r:id="rId3"/>
+    <sheet name="BIMBQM" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>schemaPattern</t>
   </si>
@@ -216,6 +218,15 @@
   </si>
   <si>
     <t>Data Size</t>
+  </si>
+  <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
+    <t>QUOTEPERMID,TICKER,MINLOTSIZE,MIFIDOPTIONTYPE,STRIKEPRICE</t>
+  </si>
+  <si>
+    <t>OBJECTID,TICKER,MINLOTSIZE,MIFIDOPTIONTYPE,STRIKEPRICE</t>
   </si>
 </sst>
 </file>
@@ -533,10 +544,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D879A17B-68BC-4462-890C-A63C5BEC80F8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46920970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D28BF1-AAF2-49E6-BF2F-4DF2B7546C35}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1">
+        <v>14677020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E43B1EF-7AEC-4016-8B85-08F060321373}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -767,7 +878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAEA11E-90EE-444F-B628-D50C225B2834}">
   <dimension ref="A1:D32"/>
   <sheetViews>
